--- a/Excel/template@模板.xlsx
+++ b/Excel/template@模板.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="107">
   <si>
     <t>id</t>
   </si>
@@ -114,6 +114,9 @@
     <t>json数据</t>
   </si>
   <si>
+    <t>any数据</t>
+  </si>
+  <si>
     <t>##end</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>jsonValue</t>
   </si>
   <si>
+    <t>listJson</t>
+  </si>
+  <si>
     <t>int32</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>json</t>
   </si>
   <si>
+    <t>list&lt;json&gt;</t>
+  </si>
+  <si>
     <t>not_localize</t>
   </si>
   <si>
@@ -252,7 +261,7 @@
     <t>c</t>
   </si>
   <si>
-    <t>测试翻译1</t>
+    <t>测试翻译1\nhello"world</t>
   </si>
   <si>
     <t>待翻译文本</t>
@@ -270,7 +279,7 @@
     <t>[1,2]</t>
   </si>
   <si>
-    <t>["你好","世界"]</t>
+    <t>["你好","世界","hello\",\nworld"]</t>
   </si>
   <si>
     <t>{"k1":1}</t>
@@ -279,15 +288,18 @@
     <t>[11,12]</t>
   </si>
   <si>
-    <t>(1,2)</t>
-  </si>
-  <si>
-    <t>(3,4)</t>
+    <t>[3,4]</t>
   </si>
   <si>
     <t>[[1,2],[3,4]]</t>
   </si>
   <si>
+    <t>[1,"hello",1.1]</t>
+  </si>
+  <si>
+    <t>[1,1.1,true,[1],"hello"]</t>
+  </si>
+  <si>
     <t>测试翻译2</t>
   </si>
   <si>
@@ -309,7 +321,7 @@
     <t>[11,13]</t>
   </si>
   <si>
-    <t>[3,4]</t>
+    <t>[2,2.1,true,[2],"hello"]</t>
   </si>
   <si>
     <t>#3</t>
@@ -334,6 +346,9 @@
   </si>
   <si>
     <t>[11,14]</t>
+  </si>
+  <si>
+    <t>[3,3.1,true,[3],"hello"]</t>
   </si>
 </sst>
 </file>
@@ -1482,18 +1497,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AN8"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomLeft" activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
     <col min="4" max="8" width="17.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="35.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="1" customWidth="1"/>
@@ -1510,10 +1526,12 @@
     <col min="32" max="35" width="9" style="1" customWidth="1"/>
     <col min="36" max="37" width="17.875" style="5" customWidth="1"/>
     <col min="38" max="38" width="19.625" style="5" customWidth="1"/>
-    <col min="39" max="40" width="13.625" customWidth="1"/>
+    <col min="39" max="39" width="13.625" customWidth="1"/>
+    <col min="40" max="40" width="19.25" customWidth="1"/>
+    <col min="42" max="42" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:40">
+    <row r="1" ht="18.75" customHeight="1" spans="1:41">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1614,43 +1632,46 @@
       <c r="AN1" s="19" t="s">
         <v>28</v>
       </c>
+      <c r="AO1" s="19" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:40">
+    <row r="2" ht="18.75" customHeight="1" spans="1:41">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>12</v>
@@ -1662,7 +1683,7 @@
         <v>14</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="19" t="s">
         <v>16</v>
@@ -1671,61 +1692,64 @@
         <v>17</v>
       </c>
       <c r="S2" s="22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W2" s="12"/>
       <c r="X2" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y2" s="12"/>
       <c r="Z2" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA2" s="13"/>
       <c r="AB2" s="13"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AE2" s="15"/>
       <c r="AF2" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG2" s="13"/>
       <c r="AH2" s="13"/>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AK2" s="15"/>
       <c r="AL2" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AM2" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="AN2" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:40">
+    <row r="3" ht="18.75" customHeight="1" spans="1:41">
       <c r="A3" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>4</v>
@@ -1740,10 +1764,10 @@
         <v>7</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>10</v>
@@ -1752,13 +1776,13 @@
         <v>11</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P3" s="21" t="s">
         <v>15</v>
@@ -1770,54 +1794,57 @@
         <v>17</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W3" s="12"/>
       <c r="X3" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y3" s="12"/>
       <c r="Z3" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA3" s="13"/>
       <c r="AB3" s="13"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AE3" s="15"/>
       <c r="AF3" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AG3" s="13"/>
       <c r="AH3" s="13"/>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AK3" s="15"/>
       <c r="AL3" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AM3" s="19" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="AN3" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:40">
+    <row r="4" ht="18.75" customHeight="1" spans="1:41">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -1825,20 +1852,20 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="23"/>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
       <c r="N4" s="20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
@@ -1846,49 +1873,50 @@
       <c r="T4" s="22"/>
       <c r="U4" s="22"/>
       <c r="V4" s="24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="W4" s="24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Y4" s="24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Z4" s="20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AA4" s="20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AB4" s="20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AC4" s="20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AD4" s="19"/>
       <c r="AE4" s="19"/>
       <c r="AF4" s="20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG4" s="20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AH4" s="20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI4" s="20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ4" s="19"/>
       <c r="AK4" s="19"/>
       <c r="AL4" s="18"/>
       <c r="AM4" s="19"/>
+      <c r="AN4" s="19"/>
     </row>
-    <row r="5" ht="19.5" customHeight="1" spans="1:40">
+    <row r="5" ht="19.5" customHeight="1" spans="1:41">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -1902,7 +1930,7 @@
       <c r="K5" s="23"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
@@ -1930,16 +1958,17 @@
       <c r="AK5" s="19"/>
       <c r="AL5" s="18"/>
       <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
     </row>
-    <row r="6" ht="21" customHeight="1" spans="1:40">
+    <row r="6" ht="21" customHeight="1" spans="1:41">
       <c r="A6" s="25">
         <v>1</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D6" s="25">
         <v>1</v>
@@ -1963,13 +1992,13 @@
         <v>123456789012</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L6" s="25">
         <v>1</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N6" s="25">
         <v>0</v>
@@ -1981,19 +2010,19 @@
         <v>3.2</v>
       </c>
       <c r="Q6" s="26" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="R6" s="26" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S6" s="28" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="T6" s="28" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U6" s="28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="V6" s="29">
         <v>1</v>
@@ -2020,10 +2049,10 @@
         <v>2</v>
       </c>
       <c r="AD6" s="30" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AE6" s="30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AF6" s="29">
         <v>1</v>
@@ -2038,24 +2067,27 @@
         <v>4</v>
       </c>
       <c r="AJ6" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK6" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AL6" s="31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AM6" s="30" t="s">
-        <v>79</v>
+        <v>88</v>
+      </c>
+      <c r="AN6" s="30" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="7" ht="21" customHeight="1" spans="1:40">
+    <row r="7" ht="21" customHeight="1" spans="1:41">
       <c r="A7" s="25">
         <v>2</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D7" s="25">
         <v>2</v>
@@ -2079,13 +2111,13 @@
         <v>123456789012</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L7" s="25">
         <v>1</v>
       </c>
       <c r="M7" s="26" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="N7" s="25">
         <v>5</v>
@@ -2097,17 +2129,17 @@
         <v>3.2</v>
       </c>
       <c r="Q7" s="26" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="R7" s="26" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="S7" s="28" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="T7" s="32"/>
       <c r="U7" s="28" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="V7" s="29">
         <v>1</v>
@@ -2134,10 +2166,10 @@
         <v>2</v>
       </c>
       <c r="AD7" s="30" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AE7" s="30" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AF7" s="29">
         <v>1</v>
@@ -2152,24 +2184,27 @@
         <v>4</v>
       </c>
       <c r="AJ7" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK7" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AL7" s="31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AM7" s="30" t="s">
-        <v>93</v>
+        <v>86</v>
+      </c>
+      <c r="AN7" s="30" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="8" ht="21" customHeight="1" spans="1:40">
+    <row r="8" ht="21" customHeight="1" spans="1:41">
       <c r="A8" s="25" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D8" s="25">
         <v>3</v>
@@ -2193,13 +2228,13 @@
         <v>123456789012</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L8" s="25">
         <v>1</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="N8" s="25">
         <v>5</v>
@@ -2208,17 +2243,17 @@
         <v>3.2</v>
       </c>
       <c r="Q8" s="26" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="R8" s="26" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="S8" s="28" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="T8" s="32"/>
       <c r="U8" s="28" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="V8" s="29">
         <v>1</v>
@@ -2245,10 +2280,10 @@
         <v>2</v>
       </c>
       <c r="AD8" s="30" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AE8" s="30" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AF8" s="29">
         <v>1</v>
@@ -2263,16 +2298,19 @@
         <v>4</v>
       </c>
       <c r="AJ8" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK8" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AL8" s="31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AM8" s="30" t="s">
-        <v>93</v>
+        <v>86</v>
+      </c>
+      <c r="AN8" s="30" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2310,7 +2348,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
